--- a/data/trans_dic/IP74A6_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP74A6_2023-Estudios-trans_dic.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 83,11</t>
+          <t>7,26; 83,13</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,13; 100,0</t>
+          <t>23,0; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,38; 100,0</t>
+          <t>15,75; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,0; 92,28</t>
+          <t>32,63; 93,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP74A6_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP74A6_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>74,45%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>69,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>71,68%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>43,64; 92,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>44,41; 87,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>53,42; 85,49</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,34%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>91,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,92%</t>
+          <t>88,28%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>74,04; 92,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>81,6; 96,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 83,13</t>
+          <t>81,69; 93,17</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>97,12%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,5%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>82,22; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>91,39; 100,0</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>75,07%</t>
+          <t>84,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>60,81%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>86,01%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,0; 100,0</t>
+          <t>75,8; 91,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,75; 100,0</t>
+          <t>77,67; 92,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,63; 93,06</t>
+          <t>80,3; 90,63</t>
         </is>
       </c>
     </row>
